--- a/Black-Box Testing.xlsx
+++ b/Black-Box Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e911393877ad0ee3/Documents/1 Johns Hopkins/1. Software Testing ^0 Debugging/Pokemon-Battle-Simulator-Debugging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{58CDC592-2887-46E0-8FF4-C71E8A5A86E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FC2752DC-72FB-4497-8429-C22C1E654FE5}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{58CDC592-2887-46E0-8FF4-C71E8A5A86E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{530342F1-EB61-4BE0-9D11-74E6C7E9E7CB}"/>
   <bookViews>
-    <workbookView xWindow="14902" yWindow="11865" windowWidth="18226" windowHeight="11873" xr2:uid="{BCFDF1C0-67CD-4DB6-874C-5A1E139B9B7B}"/>
+    <workbookView xWindow="6075" yWindow="4327" windowWidth="18225" windowHeight="11873" xr2:uid="{BCFDF1C0-67CD-4DB6-874C-5A1E139B9B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Black-Box Testing (User-Based)</t>
   </si>
@@ -133,13 +133,22 @@
     <t>Game Output on Client Side</t>
   </si>
   <si>
-    <t>Ran Second Client On Same System</t>
-  </si>
-  <si>
     <t>Infinite Loop in Server Console Side On Confirm Second Client Connected</t>
   </si>
   <si>
     <t>Confirmation to be accepted</t>
+  </si>
+  <si>
+    <t>Ran Client On System</t>
+  </si>
+  <si>
+    <t>Running Client Without Server Causes Execution Failure</t>
+  </si>
+  <si>
+    <t>Wait For Server</t>
+  </si>
+  <si>
+    <t>Ran Two Client On Same System</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555A0F1B-BE23-42F0-A74E-EB4A81E35D7F}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -640,21 +649,32 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -666,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A9CA3-8A84-4E61-8D65-DFEBC35E0706}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -685,13 +705,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -722,13 +742,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Black-Box Testing.xlsx
+++ b/Black-Box Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e911393877ad0ee3/Documents/1 Johns Hopkins/1. Software Testing ^0 Debugging/Pokemon-Battle-Simulator-Debugging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{58CDC592-2887-46E0-8FF4-C71E8A5A86E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{530342F1-EB61-4BE0-9D11-74E6C7E9E7CB}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{58CDC592-2887-46E0-8FF4-C71E8A5A86E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{599E517B-591B-420C-B5A9-3FB2A3353D3A}"/>
   <bookViews>
     <workbookView xWindow="6075" yWindow="4327" windowWidth="18225" windowHeight="11873" xr2:uid="{BCFDF1C0-67CD-4DB6-874C-5A1E139B9B7B}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>Confirmation to be accepted</t>
   </si>
   <si>
-    <t>Ran Client On System</t>
-  </si>
-  <si>
     <t>Running Client Without Server Causes Execution Failure</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Ran Two Client On Same System</t>
+  </si>
+  <si>
+    <t>Ran Only Client On System</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555A0F1B-BE23-42F0-A74E-EB4A81E35D7F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -753,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
